--- a/Processamento Inteligente de Documentos/Documentos/Extracao/Fatura3.pdf.xlsx
+++ b/Processamento Inteligente de Documentos/Documentos/Extracao/Fatura3.pdf.xlsx
@@ -60,7 +60,7 @@
     <x:t>Montante</x:t>
   </x:si>
   <x:si>
-    <x:t>Starter Shared Hosting - (28/09/2016 - 27/10/2016) Hosting Location: United Kingdom (UK)</x:t>
+    <x:t>Starter Shared Hosting - (28/09/2016 - 27/10/2016)</x:t>
   </x:si>
   <x:si>
     <x:t>4120.00</x:t>
